--- a/libs/tests/able-test.xlsx
+++ b/libs/tests/able-test.xlsx
@@ -7,8 +7,8 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="16220" windowHeight="16460" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Tests" sheetId="1" r:id="rId1"/>
+    <sheet name="Machines" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="40">
   <si>
     <t>Speed tests</t>
   </si>
@@ -137,6 +137,9 @@
   </si>
   <si>
     <t>2.5Ghz x2 i5</t>
+  </si>
+  <si>
+    <t>Ubuntu</t>
   </si>
 </sst>
 </file>
@@ -191,8 +194,22 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -247,7 +264,7 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="63">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -272,6 +289,13 @@
     <cellStyle name="Followed Hyperlink" xfId="44" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="46" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="48" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="50" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="52" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="54" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="56" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="58" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="60" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="62" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -296,6 +320,13 @@
     <cellStyle name="Hyperlink" xfId="43" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="45" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="47" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="49" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="51" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="53" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="55" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="57" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="59" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="61" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -967,10 +998,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1048,6 +1079,23 @@
         <v>37</v>
       </c>
     </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D5" t="s">
+        <v>31</v>
+      </c>
+      <c r="E5" t="s">
+        <v>32</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
